--- a/sqlDiscuss/query template.xlsx
+++ b/sqlDiscuss/query template.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="8496" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="8496" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create-INSERT" sheetId="1" r:id="rId1"/>
     <sheet name="Read-SELECT" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1 (3)" sheetId="5" r:id="rId3"/>
+    <sheet name="UPDATE" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1 (4)" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -17,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="77">
-  <si>
-    <t>NOTE: all caplock is part of the SQL query unless stated otherwise</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
   <si>
     <t>INSERT INTO</t>
   </si>
@@ -259,9 +256,6 @@
     <t>&lt;=</t>
   </si>
   <si>
-    <t>!=</t>
-  </si>
-  <si>
     <t>equals</t>
   </si>
   <si>
@@ -486,6 +480,30 @@
   </si>
   <si>
     <t>reverse result</t>
+  </si>
+  <si>
+    <t>NOTE: all capslock is part of the SQL query unless stated otherwise</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>UPDATE</t>
+  </si>
+  <si>
+    <t>SET</t>
+  </si>
+  <si>
+    <t>fld_name1 = 'new_value1'</t>
+  </si>
+  <si>
+    <t>fld_name2 = 'new_value2'</t>
+  </si>
+  <si>
+    <t>fld_name3 = 'new_value3'</t>
+  </si>
+  <si>
+    <t>DELETE FROM</t>
   </si>
 </sst>
 </file>
@@ -864,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
@@ -877,102 +895,102 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -985,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="E137" sqref="E137"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
@@ -996,365 +1014,365 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B40" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B42" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B62" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B64" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B78" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B80" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82" s="2"/>
       <c r="B82" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.45">
@@ -1362,53 +1380,53 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B94" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B96" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A98" s="2"/>
       <c r="B98" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.45">
@@ -1417,79 +1435,79 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B109" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C110" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C112" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -1538,26 +1556,26 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D126" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -1606,23 +1624,23 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B135" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -1643,12 +1661,12 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1659,17 +1677,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1677,17 +1760,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/sqlDiscuss/query template.xlsx
+++ b/sqlDiscuss/query template.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="8496" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="8496" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Create-INSERT" sheetId="1" r:id="rId1"/>
     <sheet name="Read-SELECT" sheetId="4" r:id="rId2"/>
-    <sheet name="UPDATE" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1 (4)" sheetId="6" r:id="rId4"/>
+    <sheet name="READ-JOIN" sheetId="10" r:id="rId3"/>
+    <sheet name="UPDATE" sheetId="5" r:id="rId4"/>
+    <sheet name="DELETE" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="98">
   <si>
     <t>INSERT INTO</t>
   </si>
@@ -373,9 +375,6 @@
     </r>
   </si>
   <si>
-    <t>note: % represents any character, symbol or space</t>
-  </si>
-  <si>
     <t>%a</t>
   </si>
   <si>
@@ -504,13 +503,83 @@
   </si>
   <si>
     <t>DELETE FROM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">note: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="24"/>
+        <color theme="1"/>
+        <rFont val="Lucida Sans Typewriter"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> represents any character, symbol or space</t>
+    </r>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>emergeny contact</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>adviser</t>
+  </si>
+  <si>
+    <t>Himalayas</t>
+  </si>
+  <si>
+    <t>ms. Pines</t>
+  </si>
+  <si>
+    <t>section id</t>
+  </si>
+  <si>
+    <t>table_name_1</t>
+  </si>
+  <si>
+    <t>JOIN</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>table_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">table_name_1.fld_reference_1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = table_name_2.fld_reference_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +609,14 @@
     </font>
     <font>
       <i/>
+      <u/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Lucida Sans Typewriter"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
       <u/>
       <sz val="24"/>
       <color theme="1"/>
@@ -882,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
@@ -895,7 +972,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -1003,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D140"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
@@ -1014,7 +1091,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1228,7 +1305,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>41</v>
@@ -1435,35 +1512,35 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.45">
@@ -1473,27 +1550,27 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C110" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B111" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.45">
       <c r="C112" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B114" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B115" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.45">
@@ -1501,13 +1578,13 @@
         <v>51</v>
       </c>
       <c r="B117" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C117" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.45">
@@ -1556,26 +1633,26 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B124" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C126" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.45">
@@ -1624,23 +1701,23 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B133" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.45">
@@ -1661,12 +1738,12 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B140" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1679,7 +1756,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="17.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B9" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B11" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B12" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1690,7 +1843,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1700,7 +1853,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1710,12 +1863,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
@@ -1723,7 +1876,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
@@ -1739,7 +1892,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
@@ -1758,12 +1911,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
@@ -1773,7 +1926,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
@@ -1783,7 +1936,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
@@ -1805,4 +1958,182 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sqlDiscuss/query template.xlsx
+++ b/sqlDiscuss/query template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="8496" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="22980" windowHeight="8496" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create-INSERT" sheetId="1" r:id="rId1"/>
@@ -1756,7 +1756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1832,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="29.4" x14ac:dyDescent="0.45"/>
